--- a/actitime/testdata/testdata.xlsx
+++ b/actitime/testdata/testdata.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{108929D8-4FC8-4635-B4BC-DDC2E870E37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="23304" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="16764" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -75,16 +74,39 @@
   </si>
   <si>
     <t>Billable</t>
+  </si>
+  <si>
+    <t>ACT_003</t>
+  </si>
+  <si>
+    <t>Sachin</t>
+  </si>
+  <si>
+    <t>sachin123</t>
+  </si>
+  <si>
+    <t>Tendulkar</t>
+  </si>
+  <si>
+    <t>sachin@bcci.co.in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,10 +178,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -175,8 +198,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -235,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -270,7 +295,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -447,18 +472,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,6 +492,8 @@
     <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
@@ -715,16 +742,36 @@
       <c r="AK5" s="5"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="4">
+        <v>8</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1582,7 +1629,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -1621,7 +1668,6 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -1651,6 +1697,9 @@
       <c r="AK29" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>